--- a/GUI + Reviews/202507/Europe 500.xlsx
+++ b/GUI + Reviews/202507/Europe 500.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202506\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202507/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF858D81-28BE-4FFA-96B7-387D80C1CE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EF858D81-28BE-4FFA-96B7-387D80C1CE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B01E6B8-F483-4B2B-B045-90745D4E6924}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="19200" windowHeight="10200" xr2:uid="{C6A01608-DE6F-471A-AD24-098351EAA71E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C6A01608-DE6F-471A-AD24-098351EAA71E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,9 +341,6 @@
     <t>AENA SME</t>
   </si>
   <si>
-    <t>ES0105046009</t>
-  </si>
-  <si>
     <t>AGS-BE</t>
   </si>
   <si>
@@ -4659,6 +4656,9 @@
   </si>
   <si>
     <t>GB00BTK05J60</t>
+  </si>
+  <si>
+    <t>ES0105046017</t>
   </si>
 </sst>
 </file>
@@ -5420,8 +5420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CF2311-1254-4D5F-9919-1472B0DA1DDC}">
   <dimension ref="A1:T501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6795,7 +6795,7 @@
         <v>100</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>101</v>
+        <v>1540</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>63</v>
@@ -6847,13 +6847,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>42</v>
@@ -6905,13 +6905,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>38</v>
@@ -6963,16 +6963,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="F27" s="1">
         <v>2136766718</v>
@@ -7021,13 +7021,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>67</v>
@@ -7079,13 +7079,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>67</v>
@@ -7137,16 +7137,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="F30" s="1">
         <v>632022210</v>
@@ -7155,7 +7155,7 @@
         <v>20.30339</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I30" s="1">
         <v>23952290.032171998</v>
@@ -7195,13 +7195,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>38</v>
@@ -7253,13 +7253,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>49</v>
@@ -7311,13 +7311,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>33</v>
@@ -7369,13 +7369,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>83</v>
@@ -7427,13 +7427,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>49</v>
@@ -7485,13 +7485,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>67</v>
@@ -7543,13 +7543,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>63</v>
@@ -7601,13 +7601,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>67</v>
@@ -7659,16 +7659,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="F39" s="1">
         <v>104000000</v>
@@ -7717,13 +7717,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>23</v>
@@ -7775,13 +7775,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>23</v>
@@ -7833,16 +7833,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="F42" s="1">
         <v>6072390</v>
@@ -7851,7 +7851,7 @@
         <v>1686.5129999999999</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I42" s="1">
         <v>42788111.130998902</v>
@@ -7891,13 +7891,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>38</v>
@@ -7949,13 +7949,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>38</v>
@@ -8007,13 +8007,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>42</v>
@@ -8065,13 +8065,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>67</v>
@@ -8123,13 +8123,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>23</v>
@@ -8181,13 +8181,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>38</v>
@@ -8239,13 +8239,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>38</v>
@@ -8297,13 +8297,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>38</v>
@@ -8355,13 +8355,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>33</v>
@@ -8413,13 +8413,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>23</v>
@@ -8471,13 +8471,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>23</v>
@@ -8529,13 +8529,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>33</v>
@@ -8587,13 +8587,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>23</v>
@@ -8645,13 +8645,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>83</v>
@@ -8703,13 +8703,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>33</v>
@@ -8761,13 +8761,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>23</v>
@@ -8819,13 +8819,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>49</v>
@@ -8877,13 +8877,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>67</v>
@@ -8935,13 +8935,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>28</v>
@@ -8993,13 +8993,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>23</v>
@@ -9051,16 +9051,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="F63" s="1">
         <v>15113989952</v>
@@ -9109,13 +9109,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>23</v>
@@ -9167,13 +9167,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>23</v>
@@ -9225,13 +9225,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>23</v>
@@ -9283,13 +9283,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>49</v>
@@ -9341,13 +9341,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>28</v>
@@ -9399,13 +9399,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>28</v>
@@ -9457,13 +9457,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>28</v>
@@ -9515,13 +9515,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>63</v>
@@ -9573,13 +9573,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>63</v>
@@ -9631,16 +9631,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F73" s="1">
         <v>979485980</v>
@@ -9689,13 +9689,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>63</v>
@@ -9747,13 +9747,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>23</v>
@@ -9805,13 +9805,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>23</v>
@@ -9863,13 +9863,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>49</v>
@@ -9921,13 +9921,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>83</v>
@@ -9979,16 +9979,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F79" s="1">
         <v>78600000</v>
@@ -10037,13 +10037,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>83</v>
@@ -10095,13 +10095,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>63</v>
@@ -10153,13 +10153,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>28</v>
@@ -10211,13 +10211,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>38</v>
@@ -10269,13 +10269,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>23</v>
@@ -10327,13 +10327,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>83</v>
@@ -10385,13 +10385,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>83</v>
@@ -10443,13 +10443,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>33</v>
@@ -10501,13 +10501,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>49</v>
@@ -10559,13 +10559,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>23</v>
@@ -10617,13 +10617,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>23</v>
@@ -10675,13 +10675,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>67</v>
@@ -10733,13 +10733,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>49</v>
@@ -10791,13 +10791,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>83</v>
@@ -10849,13 +10849,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>67</v>
@@ -10907,13 +10907,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>33</v>
@@ -10965,13 +10965,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>67</v>
@@ -11023,13 +11023,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>67</v>
@@ -11081,13 +11081,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>23</v>
@@ -11139,13 +11139,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>28</v>
@@ -11197,13 +11197,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>49</v>
@@ -11255,13 +11255,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>83</v>
@@ -11313,13 +11313,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>23</v>
@@ -11371,13 +11371,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>23</v>
@@ -11429,13 +11429,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>28</v>
@@ -11487,13 +11487,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>23</v>
@@ -11545,13 +11545,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>23</v>
@@ -11603,13 +11603,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>23</v>
@@ -11661,13 +11661,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>67</v>
@@ -11719,13 +11719,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>28</v>
@@ -11777,13 +11777,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>63</v>
@@ -11835,13 +11835,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>28</v>
@@ -11893,13 +11893,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>67</v>
@@ -11951,16 +11951,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F113" s="1">
         <v>100557556</v>
@@ -11969,7 +11969,7 @@
         <v>126.3142</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I113" s="1">
         <v>26023276.810468201</v>
@@ -12009,13 +12009,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>67</v>
@@ -12067,13 +12067,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>33</v>
@@ -12125,13 +12125,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>63</v>
@@ -12183,13 +12183,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>49</v>
@@ -12241,13 +12241,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>23</v>
@@ -12299,13 +12299,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>49</v>
@@ -12357,13 +12357,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>23</v>
@@ -12415,13 +12415,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>42</v>
@@ -12473,16 +12473,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="E122" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F122" s="1">
         <v>210200000</v>
@@ -12491,7 +12491,7 @@
         <v>84.432879999999997</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I122" s="1">
         <v>22578826.727298699</v>
@@ -12531,13 +12531,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>83</v>
@@ -12589,13 +12589,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>23</v>
@@ -12647,13 +12647,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>83</v>
@@ -12705,13 +12705,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>23</v>
@@ -12763,13 +12763,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>63</v>
@@ -12821,13 +12821,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>83</v>
@@ -12879,13 +12879,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>23</v>
@@ -12937,13 +12937,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>67</v>
@@ -12995,13 +12995,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>23</v>
@@ -13053,13 +13053,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>83</v>
@@ -13111,13 +13111,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>38</v>
@@ -13169,13 +13169,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>83</v>
@@ -13227,13 +13227,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>67</v>
@@ -13285,16 +13285,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="E136" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F136" s="1">
         <v>834995100</v>
@@ -13303,7 +13303,7 @@
         <v>33.984969999999997</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I136" s="1">
         <v>37105190.974229798</v>
@@ -13343,13 +13343,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>67</v>
@@ -13401,13 +13401,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>67</v>
@@ -13459,13 +13459,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>23</v>
@@ -13517,13 +13517,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>83</v>
@@ -13575,16 +13575,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="E141" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F141" s="1">
         <v>213794660</v>
@@ -13593,7 +13593,7 @@
         <v>34.775939999999999</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I141" s="1">
         <v>10769334.884394599</v>
@@ -13633,13 +13633,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>83</v>
@@ -13691,13 +13691,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>83</v>
@@ -13749,13 +13749,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>83</v>
@@ -13807,13 +13807,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>83</v>
@@ -13865,13 +13865,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>23</v>
@@ -13923,13 +13923,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>42</v>
@@ -13981,13 +13981,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>23</v>
@@ -14039,13 +14039,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>23</v>
@@ -14097,16 +14097,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>485</v>
-      </c>
       <c r="E150" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F150" s="1">
         <v>1492530286</v>
@@ -14115,7 +14115,7 @@
         <v>24.025829999999999</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I150" s="1">
         <v>32228414.703539301</v>
@@ -14155,13 +14155,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>38</v>
@@ -14213,16 +14213,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="E152" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F152" s="1">
         <v>240444520</v>
@@ -14231,7 +14231,7 @@
         <v>207.26140000000001</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I152" s="1">
         <v>62461003.025934801</v>
@@ -14271,13 +14271,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>83</v>
@@ -14329,13 +14329,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>497</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>23</v>
@@ -14387,13 +14387,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>67</v>
@@ -14445,16 +14445,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="E156" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F156" s="1">
         <v>4184021624</v>
@@ -14503,13 +14503,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>506</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>67</v>
@@ -14561,13 +14561,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>42</v>
@@ -14619,13 +14619,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>67</v>
@@ -14677,16 +14677,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="F160" s="1">
         <v>167335070</v>
@@ -14735,13 +14735,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>49</v>
@@ -14793,13 +14793,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>63</v>
@@ -14851,13 +14851,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>63</v>
@@ -14909,13 +14909,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>28</v>
@@ -14967,13 +14967,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>67</v>
@@ -15025,13 +15025,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>534</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>28</v>
@@ -15083,13 +15083,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>23</v>
@@ -15141,13 +15141,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>33</v>
@@ -15199,13 +15199,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>33</v>
@@ -15257,16 +15257,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>546</v>
-      </c>
       <c r="E170" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F170" s="1">
         <v>2792781230</v>
@@ -15275,7 +15275,7 @@
         <v>20.904910000000001</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I170" s="1">
         <v>70785278.464165896</v>
@@ -15315,13 +15315,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>33</v>
@@ -15373,16 +15373,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>552</v>
-      </c>
       <c r="E172" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F172" s="1">
         <v>410514370</v>
@@ -15431,13 +15431,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>67</v>
@@ -15489,13 +15489,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>33</v>
@@ -15547,13 +15547,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>67</v>
@@ -15605,13 +15605,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>67</v>
@@ -15663,13 +15663,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>67</v>
@@ -15721,13 +15721,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>33</v>
@@ -15779,13 +15779,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>83</v>
@@ -15837,13 +15837,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>576</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>38</v>
@@ -15895,13 +15895,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>579</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>23</v>
@@ -15953,13 +15953,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>33</v>
@@ -16011,13 +16011,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>67</v>
@@ -16069,13 +16069,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>28</v>
@@ -16127,13 +16127,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>63</v>
@@ -16185,13 +16185,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>28</v>
@@ -16243,13 +16243,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>49</v>
@@ -16301,13 +16301,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>33</v>
@@ -16359,16 +16359,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E189" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F189" s="1">
         <v>897264470</v>
@@ -16417,13 +16417,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>83</v>
@@ -16475,13 +16475,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>83</v>
@@ -16533,13 +16533,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>83</v>
@@ -16591,13 +16591,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>615</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>83</v>
@@ -16649,13 +16649,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>49</v>
@@ -16707,13 +16707,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>49</v>
@@ -16765,16 +16765,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>624</v>
-      </c>
       <c r="E196" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F196" s="1">
         <v>695415645</v>
@@ -16823,13 +16823,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>23</v>
@@ -16881,13 +16881,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>42</v>
@@ -16939,13 +16939,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>83</v>
@@ -16997,13 +16997,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>636</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>49</v>
@@ -17055,13 +17055,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>67</v>
@@ -17113,13 +17113,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>28</v>
@@ -17171,16 +17171,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="E203" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F203" s="1">
         <v>64122140</v>
@@ -17189,7 +17189,7 @@
         <v>182.32570000000001</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I203" s="1">
         <v>29343647.490880098</v>
@@ -17229,13 +17229,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>49</v>
@@ -17287,13 +17287,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>33</v>
@@ -17345,13 +17345,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>654</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>67</v>
@@ -17403,13 +17403,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>657</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>49</v>
@@ -17461,16 +17461,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>660</v>
-      </c>
       <c r="E208" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F208" s="1">
         <v>500000000</v>
@@ -17479,7 +17479,7 @@
         <v>22.735610000000001</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I208" s="1">
         <v>5682562.5705445204</v>
@@ -17519,13 +17519,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>663</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>23</v>
@@ -17577,13 +17577,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>23</v>
@@ -17635,13 +17635,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>67</v>
@@ -17693,13 +17693,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>672</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>23</v>
@@ -17751,13 +17751,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>23</v>
@@ -17809,13 +17809,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>83</v>
@@ -17867,13 +17867,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>681</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>83</v>
@@ -17925,13 +17925,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>38</v>
@@ -17983,13 +17983,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>687</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>49</v>
@@ -18041,13 +18041,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>690</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>83</v>
@@ -18099,13 +18099,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>693</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>33</v>
@@ -18157,13 +18157,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>696</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>83</v>
@@ -18215,13 +18215,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="D221" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>699</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>28</v>
@@ -18273,13 +18273,13 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>67</v>
@@ -18331,13 +18331,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="D223" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>33</v>
@@ -18389,13 +18389,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="D224" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>23</v>
@@ -18447,13 +18447,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="D225" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>23</v>
@@ -18505,13 +18505,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>714</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>49</v>
@@ -18563,13 +18563,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="D227" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>717</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>33</v>
@@ -18621,13 +18621,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>23</v>
@@ -18679,13 +18679,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="D229" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>723</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>23</v>
@@ -18737,16 +18737,16 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>726</v>
-      </c>
       <c r="E230" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F230" s="1">
         <v>107760380</v>
@@ -18795,13 +18795,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>729</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>63</v>
@@ -18853,13 +18853,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="D232" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>732</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>23</v>
@@ -18911,13 +18911,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>734</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>735</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>38</v>
@@ -18969,13 +18969,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="D234" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>738</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>23</v>
@@ -19027,13 +19027,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>741</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>23</v>
@@ -19085,13 +19085,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>744</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>63</v>
@@ -19143,13 +19143,13 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="D237" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>747</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>33</v>
@@ -19201,13 +19201,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>750</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>33</v>
@@ -19259,13 +19259,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>83</v>
@@ -19317,13 +19317,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="D240" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>756</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>23</v>
@@ -19375,13 +19375,13 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="D241" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>759</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>38</v>
@@ -19433,13 +19433,13 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="D242" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>762</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>38</v>
@@ -19491,13 +19491,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="D243" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>765</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>23</v>
@@ -19549,13 +19549,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="D244" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>768</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>23</v>
@@ -19607,13 +19607,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="D245" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>771</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>23</v>
@@ -19665,13 +19665,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="D246" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>774</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>28</v>
@@ -19723,13 +19723,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="D247" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>777</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>23</v>
@@ -19781,13 +19781,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>780</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>23</v>
@@ -19839,13 +19839,13 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>783</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>33</v>
@@ -19897,13 +19897,13 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="D250" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>786</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>28</v>
@@ -19955,13 +19955,13 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="D251" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>789</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>67</v>
@@ -20013,16 +20013,16 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="D252" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="D252" s="1" t="s">
-        <v>792</v>
-      </c>
       <c r="E252" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F252" s="1">
         <v>174200000</v>
@@ -20031,7 +20031,7 @@
         <v>23.52806</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I252" s="1">
         <v>9999973.3722782396</v>
@@ -20071,13 +20071,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>794</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>795</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>28</v>
@@ -20129,13 +20129,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="D254" s="1" t="s">
         <v>797</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>798</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>23</v>
@@ -20187,13 +20187,13 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>801</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>28</v>
@@ -20245,13 +20245,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="D256" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>804</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>23</v>
@@ -20303,16 +20303,16 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="D257" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>807</v>
-      </c>
       <c r="E257" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F257" s="1">
         <v>629293220</v>
@@ -20361,13 +20361,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="D258" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>810</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>38</v>
@@ -20419,13 +20419,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="D259" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>813</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>23</v>
@@ -20477,13 +20477,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="D260" s="1" t="s">
         <v>815</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>816</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>23</v>
@@ -20535,13 +20535,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="D261" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>819</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>49</v>
@@ -20593,13 +20593,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="D262" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>822</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>38</v>
@@ -20651,16 +20651,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>825</v>
-      </c>
       <c r="E263" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F263" s="1">
         <v>64272095</v>
@@ -20669,7 +20669,7 @@
         <v>83.119060000000005</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I263" s="1">
         <v>9794571.2983677797</v>
@@ -20709,13 +20709,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="D264" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>828</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>42</v>
@@ -20767,13 +20767,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="D265" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>831</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>67</v>
@@ -20825,16 +20825,16 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="D266" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="D266" s="1" t="s">
-        <v>834</v>
-      </c>
       <c r="E266" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F266" s="1">
         <v>164822119</v>
@@ -20883,16 +20883,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="D267" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="D267" s="1" t="s">
-        <v>837</v>
-      </c>
       <c r="E267" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F267" s="1">
         <v>273130980</v>
@@ -20941,13 +20941,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>840</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>23</v>
@@ -20999,16 +20999,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="D269" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="D269" s="1" t="s">
-        <v>843</v>
-      </c>
       <c r="E269" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F269" s="1">
         <v>182054597</v>
@@ -21057,13 +21057,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="D270" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>846</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>83</v>
@@ -21115,13 +21115,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="D271" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>849</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>67</v>
@@ -21173,13 +21173,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="D272" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>852</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>83</v>
@@ -21231,16 +21231,16 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="D273" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="D273" s="1" t="s">
-        <v>855</v>
-      </c>
       <c r="E273" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F273" s="1">
         <v>453187130</v>
@@ -21289,16 +21289,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="D274" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="D274" s="1" t="s">
-        <v>858</v>
-      </c>
       <c r="E274" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F274" s="1">
         <v>79221900</v>
@@ -21347,16 +21347,16 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="D275" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="D275" s="1" t="s">
-        <v>861</v>
-      </c>
       <c r="E275" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F275" s="1">
         <v>175921849</v>
@@ -21365,7 +21365,7 @@
         <v>151.07679999999999</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I275" s="1">
         <v>28451539.696903601</v>
@@ -21405,13 +21405,13 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="D276" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>864</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>38</v>
@@ -21463,13 +21463,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="D277" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>867</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>49</v>
@@ -21521,13 +21521,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="D278" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>870</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>33</v>
@@ -21579,13 +21579,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="D279" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>873</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>23</v>
@@ -21637,13 +21637,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="D280" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>876</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>33</v>
@@ -21695,13 +21695,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="D281" s="1" t="s">
         <v>878</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>879</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>83</v>
@@ -21753,13 +21753,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="D282" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>882</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>23</v>
@@ -21811,13 +21811,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="D283" s="1" t="s">
         <v>884</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>885</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>67</v>
@@ -21869,13 +21869,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="D284" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>888</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>28</v>
@@ -21927,13 +21927,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="D285" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>891</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>33</v>
@@ -21985,13 +21985,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="D286" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>49</v>
@@ -22043,13 +22043,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="D287" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>897</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>23</v>
@@ -22101,13 +22101,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="D288" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>900</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>49</v>
@@ -22159,13 +22159,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C289" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="D289" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>23</v>
@@ -22217,13 +22217,13 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C290" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="D290" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>906</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>23</v>
@@ -22275,13 +22275,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="D291" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>909</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>49</v>
@@ -22333,13 +22333,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="C292" s="1" t="s">
+      <c r="D292" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>912</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>67</v>
@@ -22391,13 +22391,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="D293" s="1" t="s">
         <v>914</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>915</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>28</v>
@@ -22449,13 +22449,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="C294" s="1" t="s">
+      <c r="D294" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>918</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>42</v>
@@ -22507,13 +22507,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C295" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="D295" s="1" t="s">
         <v>920</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>921</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>83</v>
@@ -22565,13 +22565,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="D296" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>924</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>33</v>
@@ -22623,13 +22623,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C297" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="D297" s="1" t="s">
         <v>926</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>927</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>67</v>
@@ -22681,13 +22681,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="D298" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>930</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>23</v>
@@ -22739,13 +22739,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C299" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="D299" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>933</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>23</v>
@@ -22797,13 +22797,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="D300" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>936</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>28</v>
@@ -22855,13 +22855,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C301" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="D301" s="1" t="s">
         <v>938</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>939</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>23</v>
@@ -22913,13 +22913,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C302" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="D302" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>942</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>83</v>
@@ -22971,13 +22971,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C303" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="D303" s="1" t="s">
         <v>944</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>945</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>83</v>
@@ -23029,13 +23029,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="C304" s="1" t="s">
+      <c r="D304" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>948</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>63</v>
@@ -23087,16 +23087,16 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C305" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="D305" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="D305" s="1" t="s">
-        <v>951</v>
-      </c>
       <c r="E305" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F305" s="1">
         <v>828972400</v>
@@ -23145,13 +23145,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C306" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="C306" s="1" t="s">
+      <c r="D306" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>954</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>67</v>
@@ -23203,13 +23203,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="C307" s="1" t="s">
+      <c r="D307" s="1" t="s">
         <v>956</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>957</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>28</v>
@@ -23261,13 +23261,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="C308" s="1" t="s">
+      <c r="D308" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>960</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>23</v>
@@ -23319,16 +23319,16 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="D309" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="D309" s="1" t="s">
-        <v>963</v>
-      </c>
       <c r="E309" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F309" s="1">
         <v>517111091</v>
@@ -23337,7 +23337,7 @@
         <v>16.441479999999999</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I309" s="1">
         <v>15787596.1744048</v>
@@ -23377,13 +23377,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="D310" s="1" t="s">
         <v>965</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>966</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>83</v>
@@ -23435,13 +23435,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C311" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="D311" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>969</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>83</v>
@@ -23493,13 +23493,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C312" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="C312" s="1" t="s">
+      <c r="D312" s="1" t="s">
         <v>971</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>972</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>23</v>
@@ -23551,13 +23551,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C313" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="C313" s="1" t="s">
+      <c r="D313" s="1" t="s">
         <v>974</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>975</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>63</v>
@@ -23609,13 +23609,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="D314" s="1" t="s">
         <v>977</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>978</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>23</v>
@@ -23667,13 +23667,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C315" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="D315" s="1" t="s">
         <v>980</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>981</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>83</v>
@@ -23725,16 +23725,16 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="C316" s="1" t="s">
+      <c r="D316" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="D316" s="1" t="s">
-        <v>984</v>
-      </c>
       <c r="E316" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F316" s="1">
         <v>769211060</v>
@@ -23783,13 +23783,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="D317" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>987</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>49</v>
@@ -23841,13 +23841,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C318" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="C318" s="1" t="s">
+      <c r="D318" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>990</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>67</v>
@@ -23899,13 +23899,13 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C319" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="D319" s="1" t="s">
         <v>992</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>993</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>28</v>
@@ -23957,13 +23957,13 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="C320" s="1" t="s">
+      <c r="D320" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>996</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>23</v>
@@ -24015,13 +24015,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="C321" s="1" t="s">
+      <c r="D321" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>999</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>33</v>
@@ -24073,16 +24073,16 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="D322" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="D322" s="1" t="s">
-        <v>1002</v>
-      </c>
       <c r="E322" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F322" s="1">
         <v>53720043</v>
@@ -24091,7 +24091,7 @@
         <v>71.254490000000004</v>
       </c>
       <c r="H322" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I322" s="1">
         <v>12086462.8888194</v>
@@ -24131,13 +24131,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="C323" s="1" t="s">
+      <c r="D323" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>1005</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>38</v>
@@ -24189,16 +24189,16 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="D324" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="D324" s="1" t="s">
-        <v>1008</v>
-      </c>
       <c r="E324" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F324" s="1">
         <v>5455850600</v>
@@ -24247,16 +24247,16 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="D325" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="D325" s="1" t="s">
-        <v>1011</v>
-      </c>
       <c r="E325" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F325" s="1">
         <v>3480581000</v>
@@ -24305,13 +24305,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="D326" s="1" t="s">
         <v>1013</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>1014</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>33</v>
@@ -24363,16 +24363,16 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="D327" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="D327" s="1" t="s">
-        <v>1017</v>
-      </c>
       <c r="E327" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F327" s="1">
         <v>2009015998</v>
@@ -24381,7 +24381,7 @@
         <v>4.8609580000000001</v>
       </c>
       <c r="H327" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I327" s="1">
         <v>23113723.766380999</v>
@@ -24421,13 +24421,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C328" s="1" t="s">
+      <c r="D328" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>1020</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>49</v>
@@ -24479,16 +24479,16 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="C329" s="1" t="s">
+      <c r="D329" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="D329" s="1" t="s">
-        <v>1023</v>
-      </c>
       <c r="E329" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F329" s="1">
         <v>3390128000</v>
@@ -24497,7 +24497,7 @@
         <v>59.383209999999998</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I329" s="1">
         <v>337823448.73325998</v>
@@ -24537,16 +24537,16 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="D330" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="D330" s="1" t="s">
-        <v>1026</v>
-      </c>
       <c r="E330" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F330" s="1">
         <v>414555050</v>
@@ -24555,7 +24555,7 @@
         <v>61.883479999999999</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I330" s="1">
         <v>32068341.6686594</v>
@@ -24595,16 +24595,16 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C331" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="C331" s="1" t="s">
+      <c r="D331" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="D331" s="1" t="s">
-        <v>1029</v>
-      </c>
       <c r="E331" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F331" s="1">
         <v>327272740</v>
@@ -24653,13 +24653,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C332" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="C332" s="1" t="s">
+      <c r="D332" s="1" t="s">
         <v>1031</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>1032</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>67</v>
@@ -24711,16 +24711,16 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C333" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="D333" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="D333" s="1" t="s">
-        <v>1035</v>
-      </c>
       <c r="E333" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F333" s="1">
         <v>108683530</v>
@@ -24769,16 +24769,16 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="C334" s="1" t="s">
+      <c r="D334" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="D334" s="1" t="s">
-        <v>1038</v>
-      </c>
       <c r="E334" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F334" s="1">
         <v>1001430970</v>
@@ -24787,7 +24787,7 @@
         <v>9.9991369999999993</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I334" s="1">
         <v>9850889.0686916504</v>
@@ -24827,16 +24827,16 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C335" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="D335" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="D335" s="1" t="s">
-        <v>1041</v>
-      </c>
       <c r="E335" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F335" s="1">
         <v>420381070</v>
@@ -24845,7 +24845,7 @@
         <v>35.714379999999998</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I335" s="1">
         <v>27384306.427069001</v>
@@ -24885,16 +24885,16 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C336" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="D336" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="D336" s="1" t="s">
-        <v>1044</v>
-      </c>
       <c r="E336" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F336" s="1">
         <v>79000000</v>
@@ -24903,7 +24903,7 @@
         <v>158.93170000000001</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I336" s="1">
         <v>29111028.501283899</v>
@@ -24943,13 +24943,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="D337" s="1" t="s">
         <v>1046</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>1047</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>49</v>
@@ -25001,13 +25001,13 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C338" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="D338" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>1050</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>23</v>
@@ -25059,13 +25059,13 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C339" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="D339" s="1" t="s">
         <v>1052</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>1053</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>23</v>
@@ -25117,13 +25117,13 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C340" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="D340" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>1056</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>67</v>
@@ -25175,13 +25175,13 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C341" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="D341" s="1" t="s">
         <v>1058</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>1059</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>23</v>
@@ -25233,13 +25233,13 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C342" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="D342" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>1062</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>38</v>
@@ -25291,13 +25291,13 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C343" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="D343" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>1065</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>23</v>
@@ -25349,13 +25349,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C344" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="D344" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="D344" s="1" t="s">
-        <v>1068</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>23</v>
@@ -25407,13 +25407,13 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C345" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="C345" s="1" t="s">
+      <c r="D345" s="1" t="s">
         <v>1070</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>1071</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>83</v>
@@ -25465,13 +25465,13 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C346" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="D346" s="1" t="s">
         <v>1073</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>1074</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>83</v>
@@ -25523,13 +25523,13 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C347" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="C347" s="1" t="s">
+      <c r="D347" s="1" t="s">
         <v>1076</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>1077</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>28</v>
@@ -25581,13 +25581,13 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="D348" s="1" t="s">
         <v>1079</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>1080</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>38</v>
@@ -25639,13 +25639,13 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C349" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="C349" s="1" t="s">
+      <c r="D349" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>1083</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>23</v>
@@ -25697,13 +25697,13 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C350" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="D350" s="1" t="s">
         <v>1085</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>1086</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>28</v>
@@ -25755,13 +25755,13 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C351" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="D351" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>1089</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>49</v>
@@ -25813,13 +25813,13 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C352" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="C352" s="1" t="s">
+      <c r="D352" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>1092</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>67</v>
@@ -25871,13 +25871,13 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C353" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="C353" s="1" t="s">
+      <c r="D353" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>1095</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>83</v>
@@ -25929,16 +25929,16 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C354" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="C354" s="1" t="s">
+      <c r="D354" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="D354" s="1" t="s">
-        <v>1098</v>
-      </c>
       <c r="E354" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F354" s="1">
         <v>328939640</v>
@@ -25987,13 +25987,13 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C355" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="D355" s="1" t="s">
         <v>1100</v>
-      </c>
-      <c r="D355" s="1" t="s">
-        <v>1101</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>38</v>
@@ -26045,13 +26045,13 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C356" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="D356" s="1" t="s">
         <v>1103</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>1104</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>83</v>
@@ -26103,13 +26103,13 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C357" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="C357" s="1" t="s">
+      <c r="D357" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>1107</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>23</v>
@@ -26161,13 +26161,13 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C358" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="D358" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>1110</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>28</v>
@@ -26219,13 +26219,13 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C359" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="C359" s="1" t="s">
+      <c r="D359" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>1113</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>63</v>
@@ -26277,13 +26277,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C360" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="C360" s="1" t="s">
+      <c r="D360" s="1" t="s">
         <v>1115</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>1116</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>38</v>
@@ -26335,13 +26335,13 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C361" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="C361" s="1" t="s">
+      <c r="D361" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>1119</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>67</v>
@@ -26393,13 +26393,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C362" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="C362" s="1" t="s">
+      <c r="D362" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>1122</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>83</v>
@@ -26451,13 +26451,13 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C363" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="C363" s="1" t="s">
+      <c r="D363" s="1" t="s">
         <v>1124</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>1125</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>23</v>
@@ -26509,13 +26509,13 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C364" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="C364" s="1" t="s">
+      <c r="D364" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="D364" s="1" t="s">
-        <v>1128</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>28</v>
@@ -26567,13 +26567,13 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C365" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="C365" s="1" t="s">
+      <c r="D365" s="1" t="s">
         <v>1130</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>1131</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>63</v>
@@ -26625,13 +26625,13 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C366" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="C366" s="1" t="s">
+      <c r="D366" s="1" t="s">
         <v>1133</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>1134</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>67</v>
@@ -26683,13 +26683,13 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C367" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="C367" s="1" t="s">
+      <c r="D367" s="1" t="s">
         <v>1136</v>
-      </c>
-      <c r="D367" s="1" t="s">
-        <v>1137</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>83</v>
@@ -26741,13 +26741,13 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C368" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="C368" s="1" t="s">
+      <c r="D368" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>1140</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>23</v>
@@ -26799,16 +26799,16 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C369" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="D369" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="D369" s="1" t="s">
-        <v>1143</v>
-      </c>
       <c r="E369" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F369" s="1">
         <v>25391697</v>
@@ -26817,7 +26817,7 @@
         <v>180.04660000000001</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I369" s="1">
         <v>4237142.69854852</v>
@@ -26857,13 +26857,13 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C370" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="C370" s="1" t="s">
+      <c r="D370" s="1" t="s">
         <v>1145</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>1146</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>23</v>
@@ -26915,13 +26915,13 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C371" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="C371" s="1" t="s">
+      <c r="D371" s="1" t="s">
         <v>1148</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>1149</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>49</v>
@@ -26973,16 +26973,16 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C372" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="C372" s="1" t="s">
+      <c r="D372" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="D372" s="1" t="s">
-        <v>1152</v>
-      </c>
       <c r="E372" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F372" s="1">
         <v>113427400</v>
@@ -26991,7 +26991,7 @@
         <v>40.60098</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I372" s="1">
         <v>12140484.2726072</v>
@@ -27031,13 +27031,13 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C373" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="C373" s="1" t="s">
+      <c r="D373" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>1155</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>23</v>
@@ -27089,13 +27089,13 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C374" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="C374" s="1" t="s">
+      <c r="D374" s="1" t="s">
         <v>1157</v>
-      </c>
-      <c r="D374" s="1" t="s">
-        <v>1158</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>23</v>
@@ -27147,16 +27147,16 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C375" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="C375" s="1" t="s">
+      <c r="D375" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="D375" s="1" t="s">
-        <v>1161</v>
-      </c>
       <c r="E375" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F375" s="1">
         <v>50200000</v>
@@ -27165,7 +27165,7 @@
         <v>72.259960000000007</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I375" s="1">
         <v>6976649.67608942</v>
@@ -27205,13 +27205,13 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C376" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="C376" s="1" t="s">
+      <c r="D376" s="1" t="s">
         <v>1163</v>
-      </c>
-      <c r="D376" s="1" t="s">
-        <v>1164</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>23</v>
@@ -27263,13 +27263,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C377" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="C377" s="1" t="s">
+      <c r="D377" s="1" t="s">
         <v>1166</v>
-      </c>
-      <c r="D377" s="1" t="s">
-        <v>1167</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>83</v>
@@ -27321,16 +27321,16 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C378" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="C378" s="1" t="s">
+      <c r="D378" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="D378" s="1" t="s">
-        <v>1170</v>
-      </c>
       <c r="E378" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F378" s="1">
         <v>1063190350</v>
@@ -27379,13 +27379,13 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C379" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="C379" s="1" t="s">
+      <c r="D379" s="1" t="s">
         <v>1172</v>
-      </c>
-      <c r="D379" s="1" t="s">
-        <v>1173</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>33</v>
@@ -27437,13 +27437,13 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C380" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="C380" s="1" t="s">
+      <c r="D380" s="1" t="s">
         <v>1175</v>
-      </c>
-      <c r="D380" s="1" t="s">
-        <v>1176</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>67</v>
@@ -27495,13 +27495,13 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C381" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="C381" s="1" t="s">
+      <c r="D381" s="1" t="s">
         <v>1178</v>
-      </c>
-      <c r="D381" s="1" t="s">
-        <v>1179</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>23</v>
@@ -27553,13 +27553,13 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C382" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="C382" s="1" t="s">
+      <c r="D382" s="1" t="s">
         <v>1181</v>
-      </c>
-      <c r="D382" s="1" t="s">
-        <v>1182</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>67</v>
@@ -27611,16 +27611,16 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C383" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="C383" s="1" t="s">
+      <c r="D383" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="D383" s="1" t="s">
-        <v>1185</v>
-      </c>
       <c r="E383" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F383" s="1">
         <v>133755572</v>
@@ -27629,7 +27629,7 @@
         <v>39.804760000000002</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I383" s="1">
         <v>8325150.4371480299</v>
@@ -27669,16 +27669,16 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C384" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="C384" s="1" t="s">
+      <c r="D384" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="D384" s="1" t="s">
-        <v>1188</v>
-      </c>
       <c r="E384" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F384" s="1">
         <v>2690238800</v>
@@ -27727,13 +27727,13 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C385" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="D385" s="1" t="s">
         <v>1190</v>
-      </c>
-      <c r="D385" s="1" t="s">
-        <v>1191</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>49</v>
@@ -27785,13 +27785,13 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C386" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="C386" s="1" t="s">
+      <c r="D386" s="1" t="s">
         <v>1193</v>
-      </c>
-      <c r="D386" s="1" t="s">
-        <v>1194</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>33</v>
@@ -27843,13 +27843,13 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C387" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="C387" s="1" t="s">
+      <c r="D387" s="1" t="s">
         <v>1196</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>1197</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>67</v>
@@ -27901,13 +27901,13 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C388" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="C388" s="1" t="s">
+      <c r="D388" s="1" t="s">
         <v>1199</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>1200</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>83</v>
@@ -27959,13 +27959,13 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C389" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="C389" s="1" t="s">
+      <c r="D389" s="1" t="s">
         <v>1202</v>
-      </c>
-      <c r="D389" s="1" t="s">
-        <v>1203</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>83</v>
@@ -28017,13 +28017,13 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C390" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="C390" s="1" t="s">
+      <c r="D390" s="1" t="s">
         <v>1205</v>
-      </c>
-      <c r="D390" s="1" t="s">
-        <v>1206</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>67</v>
@@ -28075,13 +28075,13 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C391" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="C391" s="1" t="s">
+      <c r="D391" s="1" t="s">
         <v>1208</v>
-      </c>
-      <c r="D391" s="1" t="s">
-        <v>1209</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>83</v>
@@ -28133,13 +28133,13 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C392" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="C392" s="1" t="s">
+      <c r="D392" s="1" t="s">
         <v>1211</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>1212</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>49</v>
@@ -28191,13 +28191,13 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C393" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="C393" s="1" t="s">
+      <c r="D393" s="1" t="s">
         <v>1214</v>
-      </c>
-      <c r="D393" s="1" t="s">
-        <v>1215</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>67</v>
@@ -28249,13 +28249,13 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C394" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="C394" s="1" t="s">
+      <c r="D394" s="1" t="s">
         <v>1217</v>
-      </c>
-      <c r="D394" s="1" t="s">
-        <v>1218</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>67</v>
@@ -28307,13 +28307,13 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C395" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="C395" s="1" t="s">
+      <c r="D395" s="1" t="s">
         <v>1220</v>
-      </c>
-      <c r="D395" s="1" t="s">
-        <v>1221</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>83</v>
@@ -28365,13 +28365,13 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C396" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="C396" s="1" t="s">
+      <c r="D396" s="1" t="s">
         <v>1223</v>
-      </c>
-      <c r="D396" s="1" t="s">
-        <v>1224</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>33</v>
@@ -28423,13 +28423,13 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C397" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="C397" s="1" t="s">
+      <c r="D397" s="1" t="s">
         <v>1226</v>
-      </c>
-      <c r="D397" s="1" t="s">
-        <v>1227</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>33</v>
@@ -28481,13 +28481,13 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C398" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="C398" s="1" t="s">
+      <c r="D398" s="1" t="s">
         <v>1229</v>
-      </c>
-      <c r="D398" s="1" t="s">
-        <v>1230</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>23</v>
@@ -28539,13 +28539,13 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C399" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="C399" s="1" t="s">
+      <c r="D399" s="1" t="s">
         <v>1232</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>1233</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>23</v>
@@ -28597,13 +28597,13 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C400" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="C400" s="1" t="s">
+      <c r="D400" s="1" t="s">
         <v>1235</v>
-      </c>
-      <c r="D400" s="1" t="s">
-        <v>1236</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>49</v>
@@ -28655,13 +28655,13 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C401" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="C401" s="1" t="s">
+      <c r="D401" s="1" t="s">
         <v>1238</v>
-      </c>
-      <c r="D401" s="1" t="s">
-        <v>1239</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>49</v>
@@ -28713,13 +28713,13 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C402" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="C402" s="1" t="s">
+      <c r="D402" s="1" t="s">
         <v>1241</v>
-      </c>
-      <c r="D402" s="1" t="s">
-        <v>1242</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>38</v>
@@ -28771,13 +28771,13 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C403" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="C403" s="1" t="s">
+      <c r="D403" s="1" t="s">
         <v>1244</v>
-      </c>
-      <c r="D403" s="1" t="s">
-        <v>1245</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>49</v>
@@ -28829,13 +28829,13 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C404" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="C404" s="1" t="s">
+      <c r="D404" s="1" t="s">
         <v>1247</v>
-      </c>
-      <c r="D404" s="1" t="s">
-        <v>1248</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>83</v>
@@ -28887,13 +28887,13 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C405" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="C405" s="1" t="s">
+      <c r="D405" s="1" t="s">
         <v>1250</v>
-      </c>
-      <c r="D405" s="1" t="s">
-        <v>1251</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>83</v>
@@ -28945,13 +28945,13 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C406" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="C406" s="1" t="s">
+      <c r="D406" s="1" t="s">
         <v>1253</v>
-      </c>
-      <c r="D406" s="1" t="s">
-        <v>1254</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>83</v>
@@ -29003,13 +29003,13 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C407" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="C407" s="1" t="s">
+      <c r="D407" s="1" t="s">
         <v>1256</v>
-      </c>
-      <c r="D407" s="1" t="s">
-        <v>1257</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>49</v>
@@ -29061,13 +29061,13 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C408" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="C408" s="1" t="s">
+      <c r="D408" s="1" t="s">
         <v>1259</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>1260</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>49</v>
@@ -29119,13 +29119,13 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C409" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="C409" s="1" t="s">
+      <c r="D409" s="1" t="s">
         <v>1262</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>1263</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>33</v>
@@ -29177,13 +29177,13 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C410" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="C410" s="1" t="s">
+      <c r="D410" s="1" t="s">
         <v>1265</v>
-      </c>
-      <c r="D410" s="1" t="s">
-        <v>1266</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>33</v>
@@ -29235,13 +29235,13 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C411" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="C411" s="1" t="s">
+      <c r="D411" s="1" t="s">
         <v>1268</v>
-      </c>
-      <c r="D411" s="1" t="s">
-        <v>1269</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>33</v>
@@ -29293,13 +29293,13 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C412" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="C412" s="1" t="s">
+      <c r="D412" s="1" t="s">
         <v>1271</v>
-      </c>
-      <c r="D412" s="1" t="s">
-        <v>1272</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>23</v>
@@ -29351,13 +29351,13 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C413" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="C413" s="1" t="s">
+      <c r="D413" s="1" t="s">
         <v>1274</v>
-      </c>
-      <c r="D413" s="1" t="s">
-        <v>1275</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>23</v>
@@ -29409,13 +29409,13 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C414" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="C414" s="1" t="s">
+      <c r="D414" s="1" t="s">
         <v>1277</v>
-      </c>
-      <c r="D414" s="1" t="s">
-        <v>1278</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>28</v>
@@ -29467,13 +29467,13 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C415" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="C415" s="1" t="s">
+      <c r="D415" s="1" t="s">
         <v>1280</v>
-      </c>
-      <c r="D415" s="1" t="s">
-        <v>1281</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>67</v>
@@ -29525,13 +29525,13 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C416" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="C416" s="1" t="s">
+      <c r="D416" s="1" t="s">
         <v>1283</v>
-      </c>
-      <c r="D416" s="1" t="s">
-        <v>1284</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>67</v>
@@ -29583,13 +29583,13 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C417" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="C417" s="1" t="s">
+      <c r="D417" s="1" t="s">
         <v>1286</v>
-      </c>
-      <c r="D417" s="1" t="s">
-        <v>1287</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>42</v>
@@ -29641,13 +29641,13 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C418" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="C418" s="1" t="s">
+      <c r="D418" s="1" t="s">
         <v>1289</v>
-      </c>
-      <c r="D418" s="1" t="s">
-        <v>1290</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>23</v>
@@ -29699,13 +29699,13 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C419" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="C419" s="1" t="s">
+      <c r="D419" s="1" t="s">
         <v>1292</v>
-      </c>
-      <c r="D419" s="1" t="s">
-        <v>1293</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>49</v>
@@ -29757,13 +29757,13 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C420" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="C420" s="1" t="s">
+      <c r="D420" s="1" t="s">
         <v>1295</v>
-      </c>
-      <c r="D420" s="1" t="s">
-        <v>1296</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>67</v>
@@ -29815,16 +29815,16 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C421" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="C421" s="1" t="s">
+      <c r="D421" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="D421" s="1" t="s">
-        <v>1299</v>
-      </c>
       <c r="E421" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F421" s="1">
         <v>375456307</v>
@@ -29833,7 +29833,7 @@
         <v>15.831239999999999</v>
       </c>
       <c r="H421" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I421" s="1">
         <v>3112092.43386077</v>
@@ -29873,13 +29873,13 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C422" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="C422" s="1" t="s">
+      <c r="D422" s="1" t="s">
         <v>1301</v>
-      </c>
-      <c r="D422" s="1" t="s">
-        <v>1302</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>67</v>
@@ -29931,13 +29931,13 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C423" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="C423" s="1" t="s">
+      <c r="D423" s="1" t="s">
         <v>1304</v>
-      </c>
-      <c r="D423" s="1" t="s">
-        <v>1305</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>23</v>
@@ -29989,13 +29989,13 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C424" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="C424" s="1" t="s">
+      <c r="D424" s="1" t="s">
         <v>1307</v>
-      </c>
-      <c r="D424" s="1" t="s">
-        <v>1308</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>33</v>
@@ -30047,13 +30047,13 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C425" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="C425" s="1" t="s">
+      <c r="D425" s="1" t="s">
         <v>1310</v>
-      </c>
-      <c r="D425" s="1" t="s">
-        <v>1311</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>23</v>
@@ -30105,13 +30105,13 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C426" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="C426" s="1" t="s">
+      <c r="D426" s="1" t="s">
         <v>1313</v>
-      </c>
-      <c r="D426" s="1" t="s">
-        <v>1314</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>23</v>
@@ -30163,13 +30163,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C427" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="C427" s="1" t="s">
+      <c r="D427" s="1" t="s">
         <v>1316</v>
-      </c>
-      <c r="D427" s="1" t="s">
-        <v>1317</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>23</v>
@@ -30221,13 +30221,13 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C428" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="C428" s="1" t="s">
+      <c r="D428" s="1" t="s">
         <v>1319</v>
-      </c>
-      <c r="D428" s="1" t="s">
-        <v>1320</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>28</v>
@@ -30279,13 +30279,13 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C429" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="C429" s="1" t="s">
+      <c r="D429" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="D429" s="1" t="s">
-        <v>1323</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>67</v>
@@ -30337,16 +30337,16 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C430" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="C430" s="1" t="s">
+      <c r="D430" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="D430" s="1" t="s">
-        <v>1326</v>
-      </c>
       <c r="E430" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F430" s="1">
         <v>613067700</v>
@@ -30395,16 +30395,16 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C431" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="C431" s="1" t="s">
+      <c r="D431" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="D431" s="1" t="s">
-        <v>1329</v>
-      </c>
       <c r="E431" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F431" s="1">
         <v>447972681</v>
@@ -30413,7 +30413,7 @@
         <v>11.498570000000001</v>
       </c>
       <c r="H431" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I431" s="1">
         <v>7569019.2903701803</v>
@@ -30453,13 +30453,13 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C432" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="C432" s="1" t="s">
+      <c r="D432" s="1" t="s">
         <v>1331</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>1332</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>49</v>
@@ -30511,16 +30511,16 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C433" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="C433" s="1" t="s">
+      <c r="D433" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="D433" s="1" t="s">
-        <v>1335</v>
-      </c>
       <c r="E433" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F433" s="1">
         <v>299600000</v>
@@ -30529,7 +30529,7 @@
         <v>14.279500000000001</v>
       </c>
       <c r="H433" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I433" s="1">
         <v>7821529.3757902998</v>
@@ -30569,13 +30569,13 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C434" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="C434" s="1" t="s">
+      <c r="D434" s="1" t="s">
         <v>1337</v>
-      </c>
-      <c r="D434" s="1" t="s">
-        <v>1338</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>49</v>
@@ -30627,13 +30627,13 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C435" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="C435" s="1" t="s">
+      <c r="D435" s="1" t="s">
         <v>1340</v>
-      </c>
-      <c r="D435" s="1" t="s">
-        <v>1341</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>33</v>
@@ -30685,13 +30685,13 @@
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C436" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="C436" s="1" t="s">
+      <c r="D436" s="1" t="s">
         <v>1343</v>
-      </c>
-      <c r="D436" s="1" t="s">
-        <v>1344</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>33</v>
@@ -30743,13 +30743,13 @@
         <v>436</v>
       </c>
       <c r="B437" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C437" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="C437" s="1" t="s">
+      <c r="D437" s="1" t="s">
         <v>1346</v>
-      </c>
-      <c r="D437" s="1" t="s">
-        <v>1347</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>49</v>
@@ -30801,13 +30801,13 @@
         <v>437</v>
       </c>
       <c r="B438" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C438" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="C438" s="1" t="s">
+      <c r="D438" s="1" t="s">
         <v>1349</v>
-      </c>
-      <c r="D438" s="1" t="s">
-        <v>1350</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>33</v>
@@ -30859,13 +30859,13 @@
         <v>438</v>
       </c>
       <c r="B439" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C439" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="C439" s="1" t="s">
+      <c r="D439" s="1" t="s">
         <v>1352</v>
-      </c>
-      <c r="D439" s="1" t="s">
-        <v>1353</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>33</v>
@@ -30917,13 +30917,13 @@
         <v>439</v>
       </c>
       <c r="B440" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C440" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="C440" s="1" t="s">
+      <c r="D440" s="1" t="s">
         <v>1355</v>
-      </c>
-      <c r="D440" s="1" t="s">
-        <v>1356</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>33</v>
@@ -30975,13 +30975,13 @@
         <v>440</v>
       </c>
       <c r="B441" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C441" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="C441" s="1" t="s">
+      <c r="D441" s="1" t="s">
         <v>1358</v>
-      </c>
-      <c r="D441" s="1" t="s">
-        <v>1359</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>49</v>
@@ -31033,13 +31033,13 @@
         <v>441</v>
       </c>
       <c r="B442" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C442" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="C442" s="1" t="s">
+      <c r="D442" s="1" t="s">
         <v>1361</v>
-      </c>
-      <c r="D442" s="1" t="s">
-        <v>1362</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>49</v>
@@ -31091,13 +31091,13 @@
         <v>442</v>
       </c>
       <c r="B443" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C443" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="C443" s="1" t="s">
+      <c r="D443" s="1" t="s">
         <v>1364</v>
-      </c>
-      <c r="D443" s="1" t="s">
-        <v>1365</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>49</v>
@@ -31149,13 +31149,13 @@
         <v>443</v>
       </c>
       <c r="B444" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C444" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="C444" s="1" t="s">
+      <c r="D444" s="1" t="s">
         <v>1367</v>
-      </c>
-      <c r="D444" s="1" t="s">
-        <v>1368</v>
       </c>
       <c r="E444" s="1" t="s">
         <v>49</v>
@@ -31207,13 +31207,13 @@
         <v>444</v>
       </c>
       <c r="B445" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C445" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="C445" s="1" t="s">
+      <c r="D445" s="1" t="s">
         <v>1370</v>
-      </c>
-      <c r="D445" s="1" t="s">
-        <v>1371</v>
       </c>
       <c r="E445" s="1" t="s">
         <v>49</v>
@@ -31265,13 +31265,13 @@
         <v>445</v>
       </c>
       <c r="B446" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C446" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="C446" s="1" t="s">
+      <c r="D446" s="1" t="s">
         <v>1373</v>
-      </c>
-      <c r="D446" s="1" t="s">
-        <v>1374</v>
       </c>
       <c r="E446" s="1" t="s">
         <v>42</v>
@@ -31323,13 +31323,13 @@
         <v>446</v>
       </c>
       <c r="B447" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C447" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="C447" s="1" t="s">
+      <c r="D447" s="1" t="s">
         <v>1376</v>
-      </c>
-      <c r="D447" s="1" t="s">
-        <v>1377</v>
       </c>
       <c r="E447" s="1" t="s">
         <v>83</v>
@@ -31381,13 +31381,13 @@
         <v>447</v>
       </c>
       <c r="B448" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C448" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="C448" s="1" t="s">
+      <c r="D448" s="1" t="s">
         <v>1379</v>
-      </c>
-      <c r="D448" s="1" t="s">
-        <v>1380</v>
       </c>
       <c r="E448" s="1" t="s">
         <v>83</v>
@@ -31439,13 +31439,13 @@
         <v>448</v>
       </c>
       <c r="B449" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C449" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="C449" s="1" t="s">
+      <c r="D449" s="1" t="s">
         <v>1382</v>
-      </c>
-      <c r="D449" s="1" t="s">
-        <v>1383</v>
       </c>
       <c r="E449" s="1" t="s">
         <v>23</v>
@@ -31497,13 +31497,13 @@
         <v>449</v>
       </c>
       <c r="B450" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C450" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="C450" s="1" t="s">
+      <c r="D450" s="1" t="s">
         <v>1385</v>
-      </c>
-      <c r="D450" s="1" t="s">
-        <v>1386</v>
       </c>
       <c r="E450" s="1" t="s">
         <v>23</v>
@@ -31555,13 +31555,13 @@
         <v>450</v>
       </c>
       <c r="B451" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C451" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="C451" s="1" t="s">
+      <c r="D451" s="1" t="s">
         <v>1388</v>
-      </c>
-      <c r="D451" s="1" t="s">
-        <v>1389</v>
       </c>
       <c r="E451" s="1" t="s">
         <v>67</v>
@@ -31613,13 +31613,13 @@
         <v>451</v>
       </c>
       <c r="B452" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C452" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="C452" s="1" t="s">
+      <c r="D452" s="1" t="s">
         <v>1391</v>
-      </c>
-      <c r="D452" s="1" t="s">
-        <v>1392</v>
       </c>
       <c r="E452" s="1" t="s">
         <v>33</v>
@@ -31671,13 +31671,13 @@
         <v>452</v>
       </c>
       <c r="B453" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C453" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="C453" s="1" t="s">
+      <c r="D453" s="1" t="s">
         <v>1394</v>
-      </c>
-      <c r="D453" s="1" t="s">
-        <v>1395</v>
       </c>
       <c r="E453" s="1" t="s">
         <v>28</v>
@@ -31729,13 +31729,13 @@
         <v>453</v>
       </c>
       <c r="B454" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C454" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="C454" s="1" t="s">
+      <c r="D454" s="1" t="s">
         <v>1397</v>
-      </c>
-      <c r="D454" s="1" t="s">
-        <v>1398</v>
       </c>
       <c r="E454" s="1" t="s">
         <v>63</v>
@@ -31787,16 +31787,16 @@
         <v>454</v>
       </c>
       <c r="B455" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C455" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="C455" s="1" t="s">
+      <c r="D455" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="D455" s="1" t="s">
-        <v>1401</v>
-      </c>
       <c r="E455" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F455" s="1">
         <v>1368349989</v>
@@ -31805,7 +31805,7 @@
         <v>13.46876</v>
       </c>
       <c r="H455" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I455" s="1">
         <v>16058999.6184937</v>
@@ -31845,13 +31845,13 @@
         <v>455</v>
       </c>
       <c r="B456" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C456" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="C456" s="1" t="s">
+      <c r="D456" s="1" t="s">
         <v>1403</v>
-      </c>
-      <c r="D456" s="1" t="s">
-        <v>1404</v>
       </c>
       <c r="E456" s="1" t="s">
         <v>67</v>
@@ -31903,13 +31903,13 @@
         <v>456</v>
       </c>
       <c r="B457" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C457" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="C457" s="1" t="s">
+      <c r="D457" s="1" t="s">
         <v>1406</v>
-      </c>
-      <c r="D457" s="1" t="s">
-        <v>1407</v>
       </c>
       <c r="E457" s="1" t="s">
         <v>33</v>
@@ -31961,13 +31961,13 @@
         <v>457</v>
       </c>
       <c r="B458" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C458" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="C458" s="1" t="s">
+      <c r="D458" s="1" t="s">
         <v>1409</v>
-      </c>
-      <c r="D458" s="1" t="s">
-        <v>1410</v>
       </c>
       <c r="E458" s="1" t="s">
         <v>49</v>
@@ -32019,13 +32019,13 @@
         <v>458</v>
       </c>
       <c r="B459" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C459" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="C459" s="1" t="s">
+      <c r="D459" s="1" t="s">
         <v>1412</v>
-      </c>
-      <c r="D459" s="1" t="s">
-        <v>1413</v>
       </c>
       <c r="E459" s="1" t="s">
         <v>28</v>
@@ -32077,13 +32077,13 @@
         <v>459</v>
       </c>
       <c r="B460" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C460" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="C460" s="1" t="s">
+      <c r="D460" s="1" t="s">
         <v>1415</v>
-      </c>
-      <c r="D460" s="1" t="s">
-        <v>1416</v>
       </c>
       <c r="E460" s="1" t="s">
         <v>28</v>
@@ -32135,13 +32135,13 @@
         <v>460</v>
       </c>
       <c r="B461" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C461" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="C461" s="1" t="s">
+      <c r="D461" s="1" t="s">
         <v>1418</v>
-      </c>
-      <c r="D461" s="1" t="s">
-        <v>1419</v>
       </c>
       <c r="E461" s="1" t="s">
         <v>23</v>
@@ -32193,13 +32193,13 @@
         <v>461</v>
       </c>
       <c r="B462" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C462" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="C462" s="1" t="s">
+      <c r="D462" s="1" t="s">
         <v>1421</v>
-      </c>
-      <c r="D462" s="1" t="s">
-        <v>1422</v>
       </c>
       <c r="E462" s="1" t="s">
         <v>67</v>
@@ -32251,13 +32251,13 @@
         <v>462</v>
       </c>
       <c r="B463" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C463" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="C463" s="1" t="s">
+      <c r="D463" s="1" t="s">
         <v>1424</v>
-      </c>
-      <c r="D463" s="1" t="s">
-        <v>1425</v>
       </c>
       <c r="E463" s="1" t="s">
         <v>83</v>
@@ -32309,13 +32309,13 @@
         <v>463</v>
       </c>
       <c r="B464" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C464" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="C464" s="1" t="s">
+      <c r="D464" s="1" t="s">
         <v>1427</v>
-      </c>
-      <c r="D464" s="1" t="s">
-        <v>1428</v>
       </c>
       <c r="E464" s="1" t="s">
         <v>67</v>
@@ -32367,13 +32367,13 @@
         <v>464</v>
       </c>
       <c r="B465" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C465" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="C465" s="1" t="s">
+      <c r="D465" s="1" t="s">
         <v>1430</v>
-      </c>
-      <c r="D465" s="1" t="s">
-        <v>1431</v>
       </c>
       <c r="E465" s="1" t="s">
         <v>33</v>
@@ -32425,13 +32425,13 @@
         <v>465</v>
       </c>
       <c r="B466" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C466" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="C466" s="1" t="s">
+      <c r="D466" s="1" t="s">
         <v>1433</v>
-      </c>
-      <c r="D466" s="1" t="s">
-        <v>1434</v>
       </c>
       <c r="E466" s="1" t="s">
         <v>23</v>
@@ -32483,16 +32483,16 @@
         <v>466</v>
       </c>
       <c r="B467" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C467" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="C467" s="1" t="s">
+      <c r="D467" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="D467" s="1" t="s">
-        <v>1437</v>
-      </c>
       <c r="E467" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F467" s="1">
         <v>611374300</v>
@@ -32501,7 +32501,7 @@
         <v>23.04543</v>
       </c>
       <c r="H467" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I467" s="1">
         <v>14029427.6056627</v>
@@ -32541,13 +32541,13 @@
         <v>467</v>
       </c>
       <c r="B468" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C468" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="C468" s="1" t="s">
+      <c r="D468" s="1" t="s">
         <v>1439</v>
-      </c>
-      <c r="D468" s="1" t="s">
-        <v>1440</v>
       </c>
       <c r="E468" s="1" t="s">
         <v>83</v>
@@ -32599,13 +32599,13 @@
         <v>468</v>
       </c>
       <c r="B469" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C469" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="C469" s="1" t="s">
+      <c r="D469" s="1" t="s">
         <v>1442</v>
-      </c>
-      <c r="D469" s="1" t="s">
-        <v>1443</v>
       </c>
       <c r="E469" s="1" t="s">
         <v>49</v>
@@ -32657,13 +32657,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C470" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="C470" s="1" t="s">
+      <c r="D470" s="1" t="s">
         <v>1445</v>
-      </c>
-      <c r="D470" s="1" t="s">
-        <v>1446</v>
       </c>
       <c r="E470" s="1" t="s">
         <v>42</v>
@@ -32715,13 +32715,13 @@
         <v>470</v>
       </c>
       <c r="B471" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C471" s="1" t="s">
         <v>1447</v>
       </c>
-      <c r="C471" s="1" t="s">
+      <c r="D471" s="1" t="s">
         <v>1448</v>
-      </c>
-      <c r="D471" s="1" t="s">
-        <v>1449</v>
       </c>
       <c r="E471" s="1" t="s">
         <v>38</v>
@@ -32773,13 +32773,13 @@
         <v>471</v>
       </c>
       <c r="B472" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C472" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="C472" s="1" t="s">
+      <c r="D472" s="1" t="s">
         <v>1451</v>
-      </c>
-      <c r="D472" s="1" t="s">
-        <v>1452</v>
       </c>
       <c r="E472" s="1" t="s">
         <v>67</v>
@@ -32831,13 +32831,13 @@
         <v>472</v>
       </c>
       <c r="B473" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C473" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="C473" s="1" t="s">
+      <c r="D473" s="1" t="s">
         <v>1454</v>
-      </c>
-      <c r="D473" s="1" t="s">
-        <v>1455</v>
       </c>
       <c r="E473" s="1" t="s">
         <v>28</v>
@@ -32889,13 +32889,13 @@
         <v>473</v>
       </c>
       <c r="B474" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C474" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="C474" s="1" t="s">
+      <c r="D474" s="1" t="s">
         <v>1457</v>
-      </c>
-      <c r="D474" s="1" t="s">
-        <v>1458</v>
       </c>
       <c r="E474" s="1" t="s">
         <v>38</v>
@@ -32947,13 +32947,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C475" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C475" s="1" t="s">
+      <c r="D475" s="1" t="s">
         <v>1460</v>
-      </c>
-      <c r="D475" s="1" t="s">
-        <v>1461</v>
       </c>
       <c r="E475" s="1" t="s">
         <v>28</v>
@@ -33005,13 +33005,13 @@
         <v>475</v>
       </c>
       <c r="B476" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C476" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="C476" s="1" t="s">
+      <c r="D476" s="1" t="s">
         <v>1463</v>
-      </c>
-      <c r="D476" s="1" t="s">
-        <v>1464</v>
       </c>
       <c r="E476" s="1" t="s">
         <v>23</v>
@@ -33063,13 +33063,13 @@
         <v>476</v>
       </c>
       <c r="B477" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C477" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="C477" s="1" t="s">
+      <c r="D477" s="1" t="s">
         <v>1466</v>
-      </c>
-      <c r="D477" s="1" t="s">
-        <v>1467</v>
       </c>
       <c r="E477" s="1" t="s">
         <v>23</v>
@@ -33121,16 +33121,16 @@
         <v>477</v>
       </c>
       <c r="B478" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C478" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="C478" s="1" t="s">
+      <c r="D478" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="D478" s="1" t="s">
-        <v>1470</v>
-      </c>
       <c r="E478" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F478" s="1">
         <v>527735700</v>
@@ -33179,16 +33179,16 @@
         <v>478</v>
       </c>
       <c r="B479" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C479" s="1" t="s">
         <v>1471</v>
       </c>
-      <c r="C479" s="1" t="s">
+      <c r="D479" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="D479" s="1" t="s">
-        <v>1473</v>
-      </c>
       <c r="E479" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F479" s="1">
         <v>184529600</v>
@@ -33237,13 +33237,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C480" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="C480" s="1" t="s">
+      <c r="D480" s="1" t="s">
         <v>1475</v>
-      </c>
-      <c r="D480" s="1" t="s">
-        <v>1476</v>
       </c>
       <c r="E480" s="1" t="s">
         <v>49</v>
@@ -33295,13 +33295,13 @@
         <v>480</v>
       </c>
       <c r="B481" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C481" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="C481" s="1" t="s">
+      <c r="D481" s="1" t="s">
         <v>1478</v>
-      </c>
-      <c r="D481" s="1" t="s">
-        <v>1479</v>
       </c>
       <c r="E481" s="1" t="s">
         <v>67</v>
@@ -33353,16 +33353,16 @@
         <v>481</v>
       </c>
       <c r="B482" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C482" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="C482" s="1" t="s">
+      <c r="D482" s="1" t="s">
         <v>1481</v>
       </c>
-      <c r="D482" s="1" t="s">
-        <v>1482</v>
-      </c>
       <c r="E482" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F482" s="1">
         <v>170233670</v>
@@ -33411,16 +33411,16 @@
         <v>482</v>
       </c>
       <c r="B483" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C483" s="1" t="s">
         <v>1483</v>
       </c>
-      <c r="C483" s="1" t="s">
+      <c r="D483" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="D483" s="1" t="s">
-        <v>1485</v>
-      </c>
       <c r="E483" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F483" s="1">
         <v>1009867250</v>
@@ -33429,7 +33429,7 @@
         <v>13.587289999999999</v>
       </c>
       <c r="H483" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I483" s="1">
         <v>49959992.683700599</v>
@@ -33469,13 +33469,13 @@
         <v>483</v>
       </c>
       <c r="B484" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C484" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="C484" s="1" t="s">
+      <c r="D484" s="1" t="s">
         <v>1487</v>
-      </c>
-      <c r="D484" s="1" t="s">
-        <v>1488</v>
       </c>
       <c r="E484" s="1" t="s">
         <v>67</v>
@@ -33527,13 +33527,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C485" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="C485" s="1" t="s">
+      <c r="D485" s="1" t="s">
         <v>1490</v>
-      </c>
-      <c r="D485" s="1" t="s">
-        <v>1491</v>
       </c>
       <c r="E485" s="1" t="s">
         <v>23</v>
@@ -33585,13 +33585,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C486" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="C486" s="1" t="s">
+      <c r="D486" s="1" t="s">
         <v>1493</v>
-      </c>
-      <c r="D486" s="1" t="s">
-        <v>1494</v>
       </c>
       <c r="E486" s="1" t="s">
         <v>83</v>
@@ -33643,13 +33643,13 @@
         <v>486</v>
       </c>
       <c r="B487" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C487" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="C487" s="1" t="s">
+      <c r="D487" s="1" t="s">
         <v>1496</v>
-      </c>
-      <c r="D487" s="1" t="s">
-        <v>1497</v>
       </c>
       <c r="E487" s="1" t="s">
         <v>33</v>
@@ -33701,13 +33701,13 @@
         <v>487</v>
       </c>
       <c r="B488" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C488" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="C488" s="1" t="s">
+      <c r="D488" s="1" t="s">
         <v>1499</v>
-      </c>
-      <c r="D488" s="1" t="s">
-        <v>1500</v>
       </c>
       <c r="E488" s="1" t="s">
         <v>83</v>
@@ -33759,13 +33759,13 @@
         <v>488</v>
       </c>
       <c r="B489" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C489" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="C489" s="1" t="s">
+      <c r="D489" s="1" t="s">
         <v>1502</v>
-      </c>
-      <c r="D489" s="1" t="s">
-        <v>1503</v>
       </c>
       <c r="E489" s="1" t="s">
         <v>49</v>
@@ -33817,16 +33817,16 @@
         <v>489</v>
       </c>
       <c r="B490" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C490" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="C490" s="1" t="s">
+      <c r="D490" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="D490" s="1" t="s">
-        <v>1506</v>
-      </c>
       <c r="E490" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F490" s="1">
         <v>591723400</v>
@@ -33875,13 +33875,13 @@
         <v>490</v>
       </c>
       <c r="B491" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C491" s="1" t="s">
         <v>1507</v>
       </c>
-      <c r="C491" s="1" t="s">
+      <c r="D491" s="1" t="s">
         <v>1508</v>
-      </c>
-      <c r="D491" s="1" t="s">
-        <v>1509</v>
       </c>
       <c r="E491" s="1" t="s">
         <v>42</v>
@@ -33933,13 +33933,13 @@
         <v>491</v>
       </c>
       <c r="B492" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C492" s="1" t="s">
         <v>1510</v>
       </c>
-      <c r="C492" s="1" t="s">
+      <c r="D492" s="1" t="s">
         <v>1511</v>
-      </c>
-      <c r="D492" s="1" t="s">
-        <v>1512</v>
       </c>
       <c r="E492" s="1" t="s">
         <v>23</v>
@@ -33991,13 +33991,13 @@
         <v>492</v>
       </c>
       <c r="B493" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C493" s="1" t="s">
         <v>1513</v>
       </c>
-      <c r="C493" s="1" t="s">
+      <c r="D493" s="1" t="s">
         <v>1514</v>
-      </c>
-      <c r="D493" s="1" t="s">
-        <v>1515</v>
       </c>
       <c r="E493" s="1" t="s">
         <v>23</v>
@@ -34049,16 +34049,16 @@
         <v>493</v>
       </c>
       <c r="B494" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C494" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="C494" s="1" t="s">
+      <c r="D494" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="D494" s="1" t="s">
-        <v>1518</v>
-      </c>
       <c r="E494" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F494" s="1">
         <v>109497696</v>
@@ -34107,13 +34107,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C495" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="C495" s="1" t="s">
+      <c r="D495" s="1" t="s">
         <v>1520</v>
-      </c>
-      <c r="D495" s="1" t="s">
-        <v>1521</v>
       </c>
       <c r="E495" s="1" t="s">
         <v>23</v>
@@ -34165,13 +34165,13 @@
         <v>495</v>
       </c>
       <c r="B496" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C496" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="C496" s="1" t="s">
+      <c r="D496" s="1" t="s">
         <v>1523</v>
-      </c>
-      <c r="D496" s="1" t="s">
-        <v>1524</v>
       </c>
       <c r="E496" s="1" t="s">
         <v>38</v>
@@ -34223,13 +34223,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C497" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="C497" s="1" t="s">
+      <c r="D497" s="1" t="s">
         <v>1526</v>
-      </c>
-      <c r="D497" s="1" t="s">
-        <v>1527</v>
       </c>
       <c r="E497" s="1" t="s">
         <v>23</v>
@@ -34281,16 +34281,16 @@
         <v>497</v>
       </c>
       <c r="B498" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C498" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="C498" s="1" t="s">
+      <c r="D498" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="D498" s="1" t="s">
-        <v>1530</v>
-      </c>
       <c r="E498" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F498" s="1">
         <v>254725627</v>
@@ -34299,7 +34299,7 @@
         <v>32.813209999999998</v>
       </c>
       <c r="H498" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I498" s="1">
         <v>16340129.7007866</v>
@@ -34339,13 +34339,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C499" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="C499" s="1" t="s">
+      <c r="D499" s="1" t="s">
         <v>1532</v>
-      </c>
-      <c r="D499" s="1" t="s">
-        <v>1533</v>
       </c>
       <c r="E499" s="1" t="s">
         <v>83</v>
@@ -34397,16 +34397,16 @@
         <v>499</v>
       </c>
       <c r="B500" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C500" s="1" t="s">
         <v>1534</v>
       </c>
-      <c r="C500" s="1" t="s">
+      <c r="D500" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="D500" s="1" t="s">
-        <v>1536</v>
-      </c>
       <c r="E500" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F500" s="1">
         <v>71051290</v>
@@ -34415,7 +34415,7 @@
         <v>54.818359999999998</v>
       </c>
       <c r="H500" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I500" s="1">
         <v>27894398.313544501</v>
@@ -34455,13 +34455,13 @@
         <v>500</v>
       </c>
       <c r="B501" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C501" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="C501" s="1" t="s">
+      <c r="D501" s="1" t="s">
         <v>1538</v>
-      </c>
-      <c r="D501" s="1" t="s">
-        <v>1539</v>
       </c>
       <c r="E501" s="1" t="s">
         <v>49</v>
